--- a/medicine/Enfance/Jean-Michel_Nicollet/Jean-Michel_Nicollet.xlsx
+++ b/medicine/Enfance/Jean-Michel_Nicollet/Jean-Michel_Nicollet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Michel Nicollet est un illustrateur et auteur de bande dessinée français, né à Lyon le 7 février 1944.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Michel Nicollet  est surtout connu comme illustrateur, en particulier pour les couvertures des Éditions Néo, Titres/SF et Folio Junior. Il a également illustré une quarantaine de couvertures de la collection Chair de poule. 
 Il a suivi les cours de l'École des beaux-arts de sa ville natale, où il rencontre Jacques Tardi, puis ceux des Beaux-Arts de Paris. Ses débuts professionnels remontent à 1970 où il propose des illustrations pour le mensuel Lui. Il poursuit avec quelques travaux publicitaires et la réalisation de ses premières couvertures pour la collection Folio chez Gallimard. En 1972, pour l'éditeur américain Harlin Quist, il conçoit l'iconographie du Conte de Ionesco no 4. Il rejoint l'équipe du magazine Métal Hurlant en 1977 et entreprend Ténébreuses Affaires, succession de courts récits fantastiques scénarisés par Picaret et lui-même.
-En 1979, il obtient le Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne[1] (Italie) pour  Histoire du petit Stephen Girard de Mark Twain, qu'il a illustré.
+En 1979, il obtient le Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne (Italie) pour  Histoire du petit Stephen Girard de Mark Twain, qu'il a illustré.
 Il signe de nombreuses couvertures pour divers éditeurs (Néo, Lattès…) et réalise plusieurs ouvrages, parmi lesquels Le Diable, les Poèmes de Lovecraft, les Poèmes de Howard ou encore Harry Dickson sur un texte de Marie-Paule Vandunthum et Gérard Dôle. Il est aussi le coauteur, avec Keleck du Rejeton de l'univers et d'Ersatz. Il dessine pour l'éditeur Bayard plus de la moitié des couvertures de l'édition française de la collection de romans Chair de poule de R.L. Stine, son style sombre représentant l'identité graphique de la collection dans l'imaginaire collectif de plusieurs générations d'enfants, avec également Henri Galeron. 
 Il expose sa production picturale à la galerie Escale à Paris en 1992.
 Son œuvre, essentiellement réalisée à la peinture acrylique, développe les thèmes de l'étrange et du surnaturel.
@@ -550,13 +564,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-Le Diable (Humanoïdes associés « Folles images et livres fastueux », 1978).
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Diable (Humanoïdes associés « Folles images et livres fastueux », 1978).
 Ténébreuses affaires, avec Picaret (Humanoïdes associés, 1979).
 Le Rejeton de l’univers (Humanoïdes associés, 1980, textes, design et plusieurs illustrations de Keleck).
-Le Manuscrit d’Orvileda, avec François Rivière (Hachette « Éclipse », 1980).
-Ouvrages illustrés
-La Vengeance de Nitocris, de Tennessee Williams (Futuropolis « Futuropolice nouvelle », 1983).
+Le Manuscrit d’Orvileda, avec François Rivière (Hachette « Éclipse », 1980).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Nicollet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Nicollet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Vengeance de Nitocris, de Tennessee Williams (Futuropolis « Futuropolice nouvelle », 1983).
 L’Intégrale Harry Dickson, de Jean Ray (Néo « Club Néo », 1985-1986, 21 vol.).
 L’Intégrale de Conan Doyle (Néo « Club Néo », 1986-1989, 19 vol.).
 Les Voleurs de secret, de Olivier Lécrivain (Rageot « Cascade policier », 1991).
@@ -589,7 +642,7 @@
 La sorcière de Prague, de Francis Marion Crawford (NéO plus no 5, décembre 1986).
 H.P. Lovecraft - Le roman de sa vie, Lyon Sprague de Camp (Durante éditeur, collection l'éternel retour, mai 2002).
 1978 : Le Diable (Les Humanoïdes Associés) - illustrations
-1978 :  Histoire du petit Stephen Girard de Mark Twain - illustrations Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne 1979[1].
+1978 :  Histoire du petit Stephen Girard de Mark Twain - illustrations Premio Grafico Fiera di Bologna per l'Infanzia, de la Foire du livre de jeunesse de Bologne 1979.
 1979 : Ténébreuses affaires (Les Humanoïdes Associés) - bandes dessinées et illustrations
 1980 : Le manuscrit d'Orvileda de François Rivière (Hachette)
 1981 : Erzatz avec Keleck (La Vue) - illustrations
@@ -600,15 +653,83 @@
 2006 : Apparitions (Éditions Édite).
 2008 : Neo (Zanpano).
 2009 : Miroirs (Zanpano).
-2011 : Chambres meublées (Zanpano).
-Couvertures de livres
-Croisière en meurtre majeur, de Michel Honaker.
+2011 : Chambres meublées (Zanpano).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Nicollet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Nicollet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Couvertures de livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Croisière en meurtre majeur, de Michel Honaker.
 Le Prince d'Ebène, de Michel Honaker.
 Erwan le maudit, de Michel Honaker.
 La nuit de l'étrangleur, de Evelyne Jouve.
-Histoire du « Nouveau théâtre », de Geneviève Serreau.
-Illustrations de nouvelles
-Le Faiseur de monstres, de Morrow (in À Suivre no 14, 1979).
+Histoire du « Nouveau théâtre », de Geneviève Serreau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Nicollet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Nicollet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Faiseur de monstres, de Morrow (in À Suivre no 14, 1979).
 Bonjour ma cousine, de Henriot–Gaborit (in À Suivre no 28, 1980).
 Un certain Jimmy Fast, de Jean Vautrin (in À Suivre spécial polar, 1981).
 Le Mythe décisif, de Jean-Bernard Pouy (in L’Agenda du polar 2000, Stylus, 1999).</t>
